--- a/case-de-rpa/Remessas.xlsx
+++ b/case-de-rpa/Remessas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlnd\Documents\case-de-rpa\case-de-rpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99086070-0493-455E-8559-8DAD0157A6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AF63CD-4724-4B5D-BE88-533C54DAC507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="8325" xr2:uid="{35F670DB-9139-4DEA-85C5-59BA1FDF2DF5}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{35F670DB-9139-4DEA-85C5-59BA1FDF2DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Remessas</t>
   </si>
   <si>
     <t>Lotes</t>
+  </si>
+  <si>
+    <t>Postado</t>
   </si>
 </sst>
 </file>
@@ -393,62 +396,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DFC830-F2CD-453A-AD18-033FEED6DE43}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7023929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6265919</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7092854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6290690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7057591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6234030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7012501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6226211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7076231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6292398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7052632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6201069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7050830</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6281506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7041628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6204223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7093816</v>
+        <v>6297065</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +478,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>900978</v>
+        <v>799670</v>
       </c>
     </row>
   </sheetData>
